--- a/data/new_roma_test.xlsx
+++ b/data/new_roma_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CloudLoan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB59AE4-584C-AD47-8855-913EDD7D6322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56463BC6-55DB-483C-B767-161C859BB723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1600" windowWidth="23260" windowHeight="14640" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data_new" sheetId="19" r:id="rId1"/>
@@ -920,7 +920,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,18 +1328,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2629B2-29B9-B147-872A-0D0B7D6DF975}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.84375" customWidth="1"/>
+    <col min="5" max="5" width="44.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,15 +1394,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="77.5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,15 +1450,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.4609375" customWidth="1"/>
+    <col min="4" max="4" width="36.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="93">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1506,15 +1506,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.84375" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.84375" customWidth="1"/>
+    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="139.5">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1569,15 +1569,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="294.5">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1625,15 +1625,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.15234375" customWidth="1"/>
+    <col min="4" max="4" width="56.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="372" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="341">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1681,15 +1681,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" customWidth="1"/>
+    <col min="4" max="4" width="70.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="170.5">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1737,15 +1737,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="108.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1779,42 +1779,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1835,17 +1835,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="29.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" style="1"/>
+    <col min="5" max="5" width="38.3046875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="124">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1885,55 +1885,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1950,20 +1950,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="134" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2009,7 +2009,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="134" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -2017,7 +2017,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="196" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2025,7 +2025,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="196" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2033,7 +2033,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="209" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -2041,7 +2041,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="209" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2049,7 +2049,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="209" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -2057,7 +2057,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="209" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -2065,7 +2065,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="209" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2073,7 +2073,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="209" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2081,7 +2081,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="209" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2089,7 +2089,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="209" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2097,7 +2097,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="209" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -2105,7 +2105,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="209" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2113,7 +2113,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="209" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2121,7 +2121,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="209" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2129,7 +2129,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="209" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -2137,7 +2137,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="209" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2145,7 +2145,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="209" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -2153,7 +2153,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="209" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2161,7 +2161,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="209" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2169,7 +2169,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="209" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2177,7 +2177,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="209" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -2185,7 +2185,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="209" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -2193,7 +2193,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="209" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -2201,7 +2201,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="209" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -2209,7 +2209,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="209" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2217,7 +2217,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="209" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2225,7 +2225,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="209" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -2233,7 +2233,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="209" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -2241,7 +2241,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="209" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2249,7 +2249,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="209" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -2257,7 +2257,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="209" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -2265,7 +2265,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="209" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -2273,7 +2273,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="209" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2281,7 +2281,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="209" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -2289,7 +2289,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="209" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2297,7 +2297,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="209" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -2305,7 +2305,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="209" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -2313,7 +2313,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="209" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -2321,7 +2321,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="209" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -2329,7 +2329,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="209" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -2337,7 +2337,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="209" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -2345,7 +2345,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="209" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -2353,7 +2353,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="209" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2361,7 +2361,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="209" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -2369,7 +2369,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="209" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -2377,7 +2377,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="209" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -2385,7 +2385,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="209" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -2393,7 +2393,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="209" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2401,7 +2401,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="209" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -2409,7 +2409,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="209" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -2417,7 +2417,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="209" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -2425,7 +2425,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="209" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -2433,7 +2433,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="209" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2441,7 +2441,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="209" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -2449,7 +2449,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="209" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -2457,7 +2457,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="209" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -2465,7 +2465,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="209" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2473,7 +2473,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="209" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -2481,7 +2481,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="209" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -2489,7 +2489,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="209" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -2497,7 +2497,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="209" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -2505,7 +2505,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="209" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -2513,7 +2513,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="209" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -2521,7 +2521,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="209" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -2529,7 +2529,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="209" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -2537,7 +2537,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="209" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -2545,7 +2545,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="209" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -2553,7 +2553,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="209" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -2561,7 +2561,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="209" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -2569,7 +2569,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="209" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -2577,7 +2577,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="209" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -2585,7 +2585,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="209" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -2593,7 +2593,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="209" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -2601,7 +2601,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="209" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -2609,7 +2609,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="209" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2617,7 +2617,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="209" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -2625,7 +2625,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="209" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -2633,7 +2633,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="209" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -2641,7 +2641,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="209" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -2649,7 +2649,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="209" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -2657,7 +2657,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="209" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -2665,7 +2665,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="209" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -2673,7 +2673,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="209" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -2681,7 +2681,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="209" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -2689,7 +2689,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="209" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -2697,7 +2697,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="209" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -2705,7 +2705,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="209" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -2713,7 +2713,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="209" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -2721,7 +2721,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="209" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -2729,7 +2729,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="209" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -2737,7 +2737,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="209" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -2745,7 +2745,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="209" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -2753,7 +2753,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="209" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -2761,7 +2761,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="209" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -2769,7 +2769,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="209" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -2777,7 +2777,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="209" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -2785,7 +2785,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="209" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -2793,7 +2793,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="209" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -2801,7 +2801,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="209" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -2809,7 +2809,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="209" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -2817,7 +2817,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="209" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -2825,7 +2825,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="209" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -2833,7 +2833,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="209" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -2841,7 +2841,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="209" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -2849,7 +2849,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="209" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -2857,7 +2857,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="209" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -2865,7 +2865,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="209" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -2873,7 +2873,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="209" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -2881,7 +2881,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="209" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -2889,7 +2889,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="209" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -2897,7 +2897,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="209" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -2905,7 +2905,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="209" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -2913,7 +2913,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="209" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -2921,7 +2921,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="209" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -2929,7 +2929,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="209" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -2937,7 +2937,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="209" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -2945,7 +2945,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="209" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -2953,7 +2953,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="209" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -2961,7 +2961,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="209" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -2969,7 +2969,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="209" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -2977,7 +2977,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="209" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -2985,7 +2985,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="209" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -2993,7 +2993,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="209" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -3001,7 +3001,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="209" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -3009,7 +3009,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="209" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -3017,7 +3017,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="209" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -3025,7 +3025,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="209" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3033,7 +3033,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="209" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -3041,7 +3041,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="209" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -3049,7 +3049,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="209" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -3057,7 +3057,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="209" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -3065,7 +3065,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="209" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -3073,7 +3073,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="209" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -3095,15 +3095,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="108.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3137,28 +3137,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3179,15 +3179,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="139.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3233,14 +3233,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="155">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3274,56 +3274,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3344,15 +3344,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="279">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>

--- a/data/new_roma_test.xlsx
+++ b/data/new_roma_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CloudLoan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56463BC6-55DB-483C-B767-161C859BB723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122A113-8506-5145-A6A5-F36B21373AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data_new" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="push_reconciliation_result" sheetId="21" r:id="rId13"/>
     <sheet name="offline_partial" sheetId="23" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,12 +915,26 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+  "channel": "roma",
+  "sourceCode": "roma",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,18 +1342,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2629B2-29B9-B147-872A-0D0B7D6DF975}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.84375" customWidth="1"/>
-    <col min="5" max="5" width="44.3046875" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,15 +1408,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="77.5">
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,15 +1464,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.4609375" customWidth="1"/>
-    <col min="4" max="4" width="36.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="93">
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1506,15 +1520,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.84375" customWidth="1"/>
-    <col min="2" max="2" width="37.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.84375" customWidth="1"/>
-    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="139.5">
+    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1569,15 +1583,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="294.5">
+    <row r="2" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1625,15 +1639,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.15234375" customWidth="1"/>
-    <col min="4" max="4" width="56.4609375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="341">
+    <row r="2" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1681,15 +1695,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" customWidth="1"/>
-    <col min="4" max="4" width="70.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="170.5">
+    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1737,15 +1751,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108.5">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1779,42 +1793,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1835,17 +1849,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" style="1"/>
-    <col min="5" max="5" width="38.3046875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.84375" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="124">
+    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1885,55 +1899,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1954,16 +1968,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134" customHeight="1">
+    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2009,7 +2023,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="134" customHeight="1">
+    <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -2017,7 +2031,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="196" customHeight="1">
+    <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2025,7 +2039,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1">
+    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2033,7 +2047,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="209" customHeight="1">
+    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -2041,7 +2055,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="209" customHeight="1">
+    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2049,7 +2063,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="209" customHeight="1">
+    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -2057,7 +2071,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="209" customHeight="1">
+    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -2065,7 +2079,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="209" customHeight="1">
+    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2073,7 +2087,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="209" customHeight="1">
+    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2081,7 +2095,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="209" customHeight="1">
+    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2089,7 +2103,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="209" customHeight="1">
+    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2097,7 +2111,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="209" customHeight="1">
+    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -2105,7 +2119,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="209" customHeight="1">
+    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2113,7 +2127,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="209" customHeight="1">
+    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2121,7 +2135,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="209" customHeight="1">
+    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2129,7 +2143,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="209" customHeight="1">
+    <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -2137,7 +2151,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="209" customHeight="1">
+    <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2145,7 +2159,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="209" customHeight="1">
+    <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -2153,7 +2167,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="209" customHeight="1">
+    <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2161,7 +2175,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="209" customHeight="1">
+    <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2169,7 +2183,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="209" customHeight="1">
+    <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2177,7 +2191,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="209" customHeight="1">
+    <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -2185,7 +2199,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="209" customHeight="1">
+    <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -2193,7 +2207,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="209" customHeight="1">
+    <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -2201,7 +2215,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="209" customHeight="1">
+    <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -2209,7 +2223,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="209" customHeight="1">
+    <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2217,7 +2231,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="209" customHeight="1">
+    <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2225,7 +2239,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="209" customHeight="1">
+    <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -2233,7 +2247,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="209" customHeight="1">
+    <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -2241,7 +2255,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="209" customHeight="1">
+    <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2249,7 +2263,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="209" customHeight="1">
+    <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -2257,7 +2271,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="209" customHeight="1">
+    <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -2265,7 +2279,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="209" customHeight="1">
+    <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -2273,7 +2287,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="209" customHeight="1">
+    <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2281,7 +2295,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="209" customHeight="1">
+    <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -2289,7 +2303,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="209" customHeight="1">
+    <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2297,7 +2311,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="209" customHeight="1">
+    <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -2305,7 +2319,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="209" customHeight="1">
+    <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -2313,7 +2327,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="209" customHeight="1">
+    <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -2321,7 +2335,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="209" customHeight="1">
+    <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -2329,7 +2343,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="209" customHeight="1">
+    <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -2337,7 +2351,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="209" customHeight="1">
+    <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -2345,7 +2359,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="209" customHeight="1">
+    <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -2353,7 +2367,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="209" customHeight="1">
+    <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2361,7 +2375,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="209" customHeight="1">
+    <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -2369,7 +2383,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="209" customHeight="1">
+    <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -2377,7 +2391,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="209" customHeight="1">
+    <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -2385,7 +2399,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="209" customHeight="1">
+    <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -2393,7 +2407,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="209" customHeight="1">
+    <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2401,7 +2415,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="209" customHeight="1">
+    <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -2409,7 +2423,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="209" customHeight="1">
+    <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -2417,7 +2431,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="209" customHeight="1">
+    <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -2425,7 +2439,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="209" customHeight="1">
+    <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -2433,7 +2447,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="209" customHeight="1">
+    <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2441,7 +2455,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="209" customHeight="1">
+    <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -2449,7 +2463,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="209" customHeight="1">
+    <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -2457,7 +2471,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="209" customHeight="1">
+    <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -2465,7 +2479,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="209" customHeight="1">
+    <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2473,7 +2487,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="209" customHeight="1">
+    <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -2481,7 +2495,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="209" customHeight="1">
+    <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -2489,7 +2503,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="209" customHeight="1">
+    <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -2497,7 +2511,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="209" customHeight="1">
+    <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -2505,7 +2519,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="209" customHeight="1">
+    <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -2513,7 +2527,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="209" customHeight="1">
+    <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -2521,7 +2535,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="209" customHeight="1">
+    <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -2529,7 +2543,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="209" customHeight="1">
+    <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -2537,7 +2551,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="209" customHeight="1">
+    <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -2545,7 +2559,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="209" customHeight="1">
+    <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -2553,7 +2567,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="209" customHeight="1">
+    <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -2561,7 +2575,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="209" customHeight="1">
+    <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -2569,7 +2583,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="209" customHeight="1">
+    <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -2577,7 +2591,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="209" customHeight="1">
+    <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -2585,7 +2599,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="209" customHeight="1">
+    <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -2593,7 +2607,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="209" customHeight="1">
+    <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -2601,7 +2615,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="209" customHeight="1">
+    <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -2609,7 +2623,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="209" customHeight="1">
+    <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2617,7 +2631,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="209" customHeight="1">
+    <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -2625,7 +2639,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="209" customHeight="1">
+    <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -2633,7 +2647,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="209" customHeight="1">
+    <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -2641,7 +2655,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="209" customHeight="1">
+    <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -2649,7 +2663,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="209" customHeight="1">
+    <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -2657,7 +2671,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="209" customHeight="1">
+    <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -2665,7 +2679,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="209" customHeight="1">
+    <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -2673,7 +2687,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="209" customHeight="1">
+    <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -2681,7 +2695,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="209" customHeight="1">
+    <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -2689,7 +2703,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="209" customHeight="1">
+    <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -2697,7 +2711,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="209" customHeight="1">
+    <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -2705,7 +2719,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="209" customHeight="1">
+    <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -2713,7 +2727,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="209" customHeight="1">
+    <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -2721,7 +2735,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="209" customHeight="1">
+    <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -2729,7 +2743,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="209" customHeight="1">
+    <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -2737,7 +2751,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="209" customHeight="1">
+    <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -2745,7 +2759,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="209" customHeight="1">
+    <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -2753,7 +2767,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="209" customHeight="1">
+    <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -2761,7 +2775,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="209" customHeight="1">
+    <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -2769,7 +2783,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" ht="209" customHeight="1">
+    <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -2777,7 +2791,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="209" customHeight="1">
+    <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -2785,7 +2799,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="209" customHeight="1">
+    <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -2793,7 +2807,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="209" customHeight="1">
+    <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -2801,7 +2815,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="209" customHeight="1">
+    <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -2809,7 +2823,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="209" customHeight="1">
+    <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -2817,7 +2831,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="209" customHeight="1">
+    <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -2825,7 +2839,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" ht="209" customHeight="1">
+    <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -2833,7 +2847,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" ht="209" customHeight="1">
+    <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -2841,7 +2855,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" ht="209" customHeight="1">
+    <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -2849,7 +2863,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" ht="209" customHeight="1">
+    <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -2857,7 +2871,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" ht="209" customHeight="1">
+    <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -2865,7 +2879,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" ht="209" customHeight="1">
+    <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -2873,7 +2887,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" ht="209" customHeight="1">
+    <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -2881,7 +2895,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="209" customHeight="1">
+    <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -2889,7 +2903,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" ht="209" customHeight="1">
+    <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -2897,7 +2911,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" ht="209" customHeight="1">
+    <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -2905,7 +2919,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="209" customHeight="1">
+    <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -2913,7 +2927,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" ht="209" customHeight="1">
+    <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -2921,7 +2935,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="209" customHeight="1">
+    <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -2929,7 +2943,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="209" customHeight="1">
+    <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -2937,7 +2951,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" ht="209" customHeight="1">
+    <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -2945,7 +2959,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" ht="209" customHeight="1">
+    <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -2953,7 +2967,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" ht="209" customHeight="1">
+    <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -2961,7 +2975,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="209" customHeight="1">
+    <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -2969,7 +2983,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="209" customHeight="1">
+    <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -2977,7 +2991,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" ht="209" customHeight="1">
+    <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -2985,7 +2999,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="209" customHeight="1">
+    <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -2993,7 +3007,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" ht="209" customHeight="1">
+    <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -3001,7 +3015,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" ht="209" customHeight="1">
+    <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -3009,7 +3023,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" ht="209" customHeight="1">
+    <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -3017,7 +3031,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" ht="209" customHeight="1">
+    <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -3025,7 +3039,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" ht="209" customHeight="1">
+    <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3033,7 +3047,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" ht="209" customHeight="1">
+    <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -3041,7 +3055,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" ht="209" customHeight="1">
+    <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -3049,7 +3063,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" ht="209" customHeight="1">
+    <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -3057,7 +3071,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" ht="209" customHeight="1">
+    <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -3065,7 +3079,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="209" customHeight="1">
+    <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -3073,7 +3087,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" ht="209" customHeight="1">
+    <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -3095,15 +3109,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108.5">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3137,28 +3151,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3175,19 +3189,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.15234375" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="139.5">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3214,7 +3228,9 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3233,14 +3249,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="155">
+    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3274,56 +3290,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3344,15 +3360,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="279">
+    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
